--- a/NYOI Data/2022 Member Survey Report.xlsx
+++ b/NYOI Data/2022 Member Survey Report.xlsx
@@ -16805,7 +16805,12 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84e1b615-c911-4e56-969f-e617c0ee68b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -16819,9 +16824,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A06437C5D36E4C4FAAFD3528C5BF3240" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0677823491e8161b34aa52b98ae31ec6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819d11e8-b16f-487f-9179-05ebbfb67dc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a09e3566b60afb0f7fd46840ced6715" ns2:_="">
-    <xsd:import namespace="819d11e8-b16f-487f-9179-05ebbfb67dc7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4024CF44A37F04291FF95658E7ECBDA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48157437e3e8b05a4b43e78227dbda30">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84e1b615-c911-4e56-969f-e617c0ee68b8" xmlns:ns3="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bbc3cefdcb64ba40b13a96d645c71cb" ns2:_="" ns3:_="">
+    <xsd:import namespace="84e1b615-c911-4e56-969f-e617c0ee68b8"/>
+    <xsd:import namespace="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -16830,6 +16836,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16837,7 +16855,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="819d11e8-b16f-487f-9179-05ebbfb67dc7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="84e1b615-c911-4e56-969f-e617c0ee68b8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -16849,6 +16867,98 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a617ba4a-2656-4853-a117-80cdf3c5b071" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4f51db75-969f-4614-8e87-7d7bbf8477d9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -16959,5 +17069,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA9D4E-C3BC-4EB9-9898-37A7D0B0CB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72EABC-B404-4935-8FFA-510378FE4519}"/>
 </file>
--- a/NYOI Data/2022 Member Survey Report.xlsx
+++ b/NYOI Data/2022 Member Survey Report.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dlockett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://childrenatrisk.sharepoint.com/sites/CHILDRENATRISK/Shared Documents/CSME - PK12 and Research/BGCGH Data Files/BGCGH-Evaluation-2023/NYOI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66471F18-A331-4A34-BBCD-4CA6E886432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{66471F18-A331-4A34-BBCD-4CA6E886432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D362B40E-ECBF-4C9B-BF9B-22BB9B4C4E1D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="105" windowWidth="21750" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Oaks Middle" sheetId="1" r:id="rId1"/>
-    <sheet name="The Woman's Home" sheetId="3" r:id="rId2"/>
+    <sheet name="The Women's Home" sheetId="3" r:id="rId2"/>
     <sheet name="Westwood" sheetId="4" r:id="rId3"/>
     <sheet name="Spring Branch Elem" sheetId="2" r:id="rId4"/>
     <sheet name="Woodview" sheetId="5" r:id="rId5"/>
@@ -1540,7 +1540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1571,7 +1571,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1918,14 +1918,14 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1949,12 +1949,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2192,12 +2192,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2333,12 +2333,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2491,12 +2491,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2581,12 +2581,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -2688,12 +2688,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -2778,12 +2778,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -2838,12 +2838,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -2903,12 +2903,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -2936,12 +2936,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>62</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>169</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>62</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>175</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.6">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.6">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.6">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -3140,12 +3140,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.6">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.6">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>193</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.6">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.6">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -3287,12 +3287,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.6">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.6">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>206</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>207</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>211</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>212</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>213</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -3444,12 +3444,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>62</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>218</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>219</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>62</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>221</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>222</v>
       </c>
@@ -3551,12 +3551,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>62</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>228</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>229</v>
       </c>
@@ -3607,12 +3607,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>231</v>
       </c>
@@ -3646,12 +3646,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>62</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>238</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>239</v>
       </c>
@@ -3711,12 +3711,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>62</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>246</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>247</v>
       </c>
@@ -3776,12 +3776,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>62</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>251</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.6">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>62</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.6">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.6">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>254</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.6">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.6">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>255</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.6">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>256</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.6">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>257</v>
       </c>
@@ -3922,12 +3922,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.6">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.6">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.6">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>259</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.6">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>260</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.6">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>261</v>
       </c>
@@ -3995,12 +3995,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>264</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>265</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>266</v>
       </c>
@@ -4068,12 +4068,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>268</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>269</v>
       </c>
@@ -4133,12 +4133,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>277</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>62</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>280</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>62</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>287</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>288</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>289</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>290</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>62</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>295</v>
       </c>
@@ -4361,12 +4361,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>62</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>299</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>62</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>302</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>306</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>308</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>309</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>310</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>312</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>314</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>315</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>316</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>317</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.6">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>318</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.6">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>319</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.6">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>320</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.6">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>322</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.6">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>323</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.6">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>324</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.6">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>62</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.6">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>327</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.6">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>62</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.6">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>330</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.6">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.6">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>334</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>337</v>
       </c>
@@ -4680,12 +4680,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>339</v>
       </c>
@@ -4725,12 +4725,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>62</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>341</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>342</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>344</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.6">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>62</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.6">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>346</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.6">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>347</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.6">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>348</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.6">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>349</v>
       </c>
@@ -4900,12 +4900,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.6">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.6">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>62</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.6">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>351</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.6">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>352</v>
       </c>
@@ -4956,12 +4956,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.6">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.6">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>62</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.6">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>354</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.6">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>355</v>
       </c>
@@ -5012,12 +5012,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.6">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.6">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.6">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>361</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.6">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -5068,12 +5068,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.6">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.6">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>62</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.6">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>365</v>
       </c>
@@ -5107,12 +5107,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.6">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.6">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>62</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>367</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>368</v>
       </c>
@@ -5163,12 +5163,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15.6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>62</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>259</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>260</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>261</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15.6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5256,18 +5256,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F3EBC-0FD0-4A47-B2B0-37531FAD73A7}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5291,12 +5291,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -5534,12 +5534,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -5675,12 +5675,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -5833,12 +5833,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -5923,12 +5923,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -6030,12 +6030,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -6120,12 +6120,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -6180,12 +6180,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>376</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>377</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -6273,12 +6273,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -6338,12 +6338,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>382</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>383</v>
       </c>
@@ -6431,12 +6431,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>175</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>176</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>177</v>
       </c>
@@ -6561,12 +6561,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>62</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>62</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>62</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>198</v>
       </c>
@@ -6708,12 +6708,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>386</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>387</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>388</v>
       </c>
@@ -6781,12 +6781,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>390</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>391</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>392</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>393</v>
       </c>
@@ -6871,12 +6871,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>62</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>395</v>
       </c>
@@ -6910,12 +6910,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>398</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>399</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>400</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>401</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>402</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>403</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>404</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>405</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>406</v>
       </c>
@@ -7102,12 +7102,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>207</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>211</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>212</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>215</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -7259,12 +7259,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -7366,12 +7366,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -7422,12 +7422,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>62</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -7461,12 +7461,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>62</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>238</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>239</v>
       </c>
@@ -7526,12 +7526,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>246</v>
       </c>
@@ -7571,12 +7571,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>62</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>252</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>254</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>62</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>255</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>256</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>257</v>
       </c>
@@ -7695,12 +7695,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>62</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -7768,12 +7768,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>265</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>266</v>
       </c>
@@ -7841,12 +7841,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -7886,12 +7886,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>62</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>277</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>62</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>280</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>287</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>288</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>290</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -8114,12 +8114,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>339</v>
       </c>
@@ -8159,12 +8159,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>62</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>341</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>342</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>343</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>344</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>62</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>346</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>347</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>349</v>
       </c>
@@ -8334,12 +8334,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>62</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>351</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -8390,12 +8390,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>62</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>354</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>355</v>
       </c>
@@ -8446,12 +8446,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>361</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>362</v>
       </c>
@@ -8502,12 +8502,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>62</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>365</v>
       </c>
@@ -8541,12 +8541,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>62</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>367</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>368</v>
       </c>
@@ -8597,12 +8597,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>62</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>259</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>260</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>261</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8694,19 +8694,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>411</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>414</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>416</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>417</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>419</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -8815,12 +8815,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>424</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>425</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>426</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>428</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>429</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>430</v>
       </c>
@@ -8990,12 +8990,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>432</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>433</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>434</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>435</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>436</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>437</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>439</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>440</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>441</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -9199,12 +9199,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>444</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>445</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>446</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>447</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>449</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>451</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>453</v>
       </c>
@@ -9391,12 +9391,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>455</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>456</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>457</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>458</v>
       </c>
@@ -9481,12 +9481,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>464</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>465</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>467</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>468</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>469</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>470</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>472</v>
       </c>
@@ -9686,12 +9686,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>474</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>475</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>476</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>477</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>478</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>479</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>480</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>481</v>
       </c>
@@ -9871,12 +9871,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>487</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>488</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>489</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>490</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>491</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -10002,14 +10002,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10033,12 +10033,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -10276,12 +10276,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10400,12 +10400,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -10558,12 +10558,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -10648,12 +10648,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -10755,12 +10755,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -10845,12 +10845,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -10905,12 +10905,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>375</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>376</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>377</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>378</v>
       </c>
@@ -10976,12 +10976,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -11021,12 +11021,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>382</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>383</v>
       </c>
@@ -11114,12 +11114,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>158</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>177</v>
       </c>
@@ -11244,12 +11244,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>186</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>193</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>198</v>
       </c>
@@ -11391,12 +11391,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>62</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>386</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>387</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>388</v>
       </c>
@@ -11464,12 +11464,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>62</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>390</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>391</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>392</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>393</v>
       </c>
@@ -11554,12 +11554,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>62</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>395</v>
       </c>
@@ -11593,12 +11593,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>62</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>397</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>398</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>399</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>400</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>402</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>403</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>404</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>405</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>406</v>
       </c>
@@ -11785,12 +11785,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>211</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>212</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>215</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>216</v>
       </c>
@@ -11942,12 +11942,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>62</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>221</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>222</v>
       </c>
@@ -12049,12 +12049,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>62</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>228</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -12105,12 +12105,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>62</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>231</v>
       </c>
@@ -12144,12 +12144,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>62</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>238</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -12209,12 +12209,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>246</v>
       </c>
@@ -12254,12 +12254,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>62</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>252</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>254</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>62</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>255</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>256</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>257</v>
       </c>
@@ -12378,12 +12378,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>62</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>259</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>260</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>261</v>
       </c>
@@ -12451,12 +12451,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>62</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>264</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>265</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>266</v>
       </c>
@@ -12524,12 +12524,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>268</v>
       </c>
@@ -12569,12 +12569,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>62</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>277</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>62</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>280</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>62</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>287</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>290</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>295</v>
       </c>
@@ -12797,12 +12797,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>339</v>
       </c>
@@ -12842,12 +12842,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>341</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>342</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>343</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>344</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>62</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>346</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>347</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>348</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>349</v>
       </c>
@@ -13017,12 +13017,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>62</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>351</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>352</v>
       </c>
@@ -13073,12 +13073,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>62</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>354</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>355</v>
       </c>
@@ -13129,12 +13129,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>62</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>361</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>362</v>
       </c>
@@ -13185,12 +13185,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>62</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>365</v>
       </c>
@@ -13224,12 +13224,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>62</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>367</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>368</v>
       </c>
@@ -13280,12 +13280,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>62</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>259</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>260</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>261</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -13373,18 +13373,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7708AC22-C93E-470A-9FAF-C5FFE1B33134}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13408,12 +13408,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -13651,12 +13651,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -13792,12 +13792,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -13950,12 +13950,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -14040,12 +14040,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -14147,12 +14147,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -14237,12 +14237,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -14297,12 +14297,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>376</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>377</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -14390,12 +14390,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -14455,12 +14455,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>382</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>383</v>
       </c>
@@ -14548,12 +14548,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>175</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>176</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>177</v>
       </c>
@@ -14678,12 +14678,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>62</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>62</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>62</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>198</v>
       </c>
@@ -14825,12 +14825,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>386</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>387</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>388</v>
       </c>
@@ -14898,12 +14898,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>62</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>390</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>391</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>392</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>393</v>
       </c>
@@ -14988,12 +14988,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>62</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>395</v>
       </c>
@@ -15027,12 +15027,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>398</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>399</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>400</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>401</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>402</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>403</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>404</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>405</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>406</v>
       </c>
@@ -15219,12 +15219,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>207</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>211</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>212</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>215</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -15376,12 +15376,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>219</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -15483,12 +15483,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -15539,12 +15539,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>62</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -15578,12 +15578,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>62</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>238</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>239</v>
       </c>
@@ -15643,12 +15643,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>246</v>
       </c>
@@ -15688,12 +15688,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>62</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>252</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>254</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>62</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>255</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>256</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>257</v>
       </c>
@@ -15812,12 +15812,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>62</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -15885,12 +15885,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>265</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>266</v>
       </c>
@@ -15958,12 +15958,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -16003,12 +16003,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>62</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>277</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>62</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>280</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>287</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>288</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>290</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>62</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -16231,12 +16231,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>339</v>
       </c>
@@ -16276,12 +16276,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>62</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>341</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>342</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>343</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>344</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>62</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>346</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>347</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>349</v>
       </c>
@@ -16451,12 +16451,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>62</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>351</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -16507,12 +16507,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>62</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>354</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>355</v>
       </c>
@@ -16563,12 +16563,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>361</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>362</v>
       </c>
@@ -16619,12 +16619,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>62</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>365</v>
       </c>
@@ -16658,12 +16658,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>62</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>367</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>368</v>
       </c>
@@ -16714,12 +16714,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>62</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>259</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>260</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>261</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16815,15 +16815,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4024CF44A37F04291FF95658E7ECBDA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48157437e3e8b05a4b43e78227dbda30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84e1b615-c911-4e56-969f-e617c0ee68b8" xmlns:ns3="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bbc3cefdcb64ba40b13a96d645c71cb" ns2:_="" ns3:_="">
     <xsd:import namespace="84e1b615-c911-4e56-969f-e617c0ee68b8"/>
@@ -17060,14 +17051,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81AFCF16-442F-4904-A339-6B2AD270CFD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81AFCF16-442F-4904-A339-6B2AD270CFD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e1b615-c911-4e56-969f-e617c0ee68b8"/>
+    <ds:schemaRef ds:uri="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DDA7501-E4E1-4A87-ADE7-A5C59EDCE424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72EABC-B404-4935-8FFA-510378FE4519}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84e1b615-c911-4e56-969f-e617c0ee68b8"/>
+    <ds:schemaRef ds:uri="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72EABC-B404-4935-8FFA-510378FE4519}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DDA7501-E4E1-4A87-ADE7-A5C59EDCE424}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NYOI Data/2022 Member Survey Report.xlsx
+++ b/NYOI Data/2022 Member Survey Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://childrenatrisk.sharepoint.com/sites/CHILDRENATRISK/Shared Documents/CSME - PK12 and Research/BGCGH Data Files/BGCGH-Evaluation-2023/NYOI Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{66471F18-A331-4A34-BBCD-4CA6E886432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D362B40E-ECBF-4C9B-BF9B-22BB9B4C4E1D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="106_{DD2B6237-7564-4694-8462-93E98D8EC631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF1B552-BDA5-4ED6-9F02-B2C9FB5DBC19}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="105" windowWidth="21750" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="990" windowWidth="21750" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Oaks Middle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="417">
   <si>
     <t>Detail Report,  Spring Oaks Middle Boys &amp; Girls Club  2022,  Measure(s): All Categories, All</t>
   </si>
@@ -1266,253 +1266,7 @@
     <t>Healthy Lifestyles Measure</t>
   </si>
   <si>
-    <t>Detail Report, Westwood Elementary Boys &amp; Girls Club, 2022, Measure(s): All Categories, All</t>
-  </si>
-  <si>
-    <t>All Measures</t>
-  </si>
-  <si>
-    <t># Of Responses</t>
-  </si>
-  <si>
-    <t>Average for this Site</t>
-  </si>
-  <si>
-    <t>National Average Across All Organizations</t>
-  </si>
-  <si>
-    <t>Staff Club Experience</t>
-  </si>
-  <si>
-    <t>Staff Org Experience</t>
-  </si>
-  <si>
-    <t>Youth Development Practices</t>
-  </si>
-  <si>
-    <t>Community Engagement</t>
-  </si>
-  <si>
-    <t>Management Practices</t>
-  </si>
-  <si>
-    <t>Staff Meetings</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Staff Club Experience Items</t>
-  </si>
-  <si>
-    <t>I enjoy working at the Club</t>
-  </si>
-  <si>
-    <t>I feel safe when I’m at the Club</t>
-  </si>
-  <si>
-    <t>Other staff always want me to do my best</t>
-  </si>
-  <si>
-    <t>I feel respected by the youth at the Club</t>
-  </si>
-  <si>
-    <t>I feel like I belong here</t>
-  </si>
-  <si>
-    <t>I feel respected by other staff at the Club</t>
-  </si>
-  <si>
-    <t>I get to help make decisions at the Club</t>
-  </si>
-  <si>
-    <t>Other staff notice when I work hard</t>
-  </si>
-  <si>
-    <t>I feel like my ideas count here</t>
-  </si>
-  <si>
-    <t>Staff Org Experience Items</t>
-  </si>
-  <si>
-    <t>Staff at my org share a common vision for our Clubs</t>
-  </si>
-  <si>
-    <t>Youth safety is very important in my org</t>
-  </si>
-  <si>
-    <t>Providing members with a high-quality Club Experience is a priority here</t>
-  </si>
-  <si>
-    <t>I have opportunities for career advancement at my org</t>
-  </si>
-  <si>
-    <t>I have opportunities for professional development</t>
-  </si>
-  <si>
-    <t>I feel like I have job security here</t>
-  </si>
-  <si>
-    <t>My org responds to my needs in a timely and effective manner</t>
-  </si>
-  <si>
-    <t>My org provides me with the resources I need to do my job well</t>
-  </si>
-  <si>
-    <t>My org values learning</t>
-  </si>
-  <si>
-    <t>My org supports new ideas</t>
-  </si>
-  <si>
-    <t>I would recommend this org as a great place to work</t>
-  </si>
-  <si>
-    <t>Youth Development Practices Items</t>
-  </si>
-  <si>
-    <t>Staff deliver programs and activities in a way that’s fun for all youth</t>
-  </si>
-  <si>
-    <t>Staff know youths’ interests</t>
-  </si>
-  <si>
-    <t>Staff believe that all youth can be successful in life</t>
-  </si>
-  <si>
-    <t>Staff invite youth to help develop the rules and expectations for behavior</t>
-  </si>
-  <si>
-    <t>Staff actively seek feedback from youth</t>
-  </si>
-  <si>
-    <t>Staff provide youth with meaningful choices (e.g. what materials they use, what they will do, how they will do it)</t>
-  </si>
-  <si>
-    <t>Staff hold youth responsible for their behavior in a fair and consistent manner</t>
-  </si>
-  <si>
-    <t>Staff know what’s going on in youths’ lives</t>
-  </si>
-  <si>
-    <t>Staff recognize the efforts and accomplishments of youth in a structured manner</t>
-  </si>
-  <si>
-    <t>Staff support youth in exploring their own cultural identities</t>
-  </si>
-  <si>
-    <t>Community Engagement Items</t>
-  </si>
-  <si>
-    <t>Your Club gives families opportunities to get involved</t>
-  </si>
-  <si>
-    <t>Families take an active role at your Club</t>
-  </si>
-  <si>
-    <t>Your Club regularly communicates with schools and teachers</t>
-  </si>
-  <si>
-    <t>Teachers and/or school staff participate in your Club</t>
-  </si>
-  <si>
-    <t>Management Practices Items</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>Often</t>
-  </si>
-  <si>
-    <t>Sometimes</t>
-  </si>
-  <si>
-    <t>Rarely</t>
-  </si>
-  <si>
-    <t>Matches staff roles with their interests and strengths</t>
-  </si>
-  <si>
-    <t>Stays regularly involved in Club activities</t>
-  </si>
-  <si>
-    <t>Builds trusting relationships with staff</t>
-  </si>
-  <si>
-    <t>Creates opportunities for staff to collaborate</t>
-  </si>
-  <si>
-    <t>Seeks to learn from staff</t>
-  </si>
-  <si>
-    <t>Fosters a culture where we learn from mistakes</t>
-  </si>
-  <si>
-    <t>Observes staff during the Club day and provides feedback</t>
-  </si>
-  <si>
-    <t>Has one-on-one meetings with staff to provide guidance and support</t>
-  </si>
-  <si>
-    <t>Has one-on-one meetings with staff to discuss professional development</t>
-  </si>
-  <si>
-    <t>Staff Meetings Items</t>
-  </si>
-  <si>
-    <t>Balancing housekeeping and learning</t>
-  </si>
-  <si>
-    <t>Discussing Club Experience or program quality</t>
-  </si>
-  <si>
-    <t>Reviewing Club data (e.g. attendance, pulse checks, YPQA, or NYOI)</t>
-  </si>
-  <si>
-    <t>Reviewing and discussing an action plan to improve the Club</t>
-  </si>
-  <si>
-    <t>Learning or professional development activities</t>
-  </si>
-  <si>
-    <t>Staff are invited to lead a discussion or activity</t>
-  </si>
-  <si>
-    <t>Staff are recognized for their efforts and achievements</t>
-  </si>
-  <si>
-    <t>Staff get to engage in meaningful decision-making</t>
-  </si>
-  <si>
-    <t>Training Items</t>
-  </si>
-  <si>
-    <t>Very beneficial</t>
-  </si>
-  <si>
-    <t>Moderately beneficial</t>
-  </si>
-  <si>
-    <t>Slightly beneficial</t>
-  </si>
-  <si>
-    <t>Not at all beneficial</t>
-  </si>
-  <si>
-    <t>Orientation or onboarding for new staff</t>
-  </si>
-  <si>
-    <t>Online computer-based training</t>
-  </si>
-  <si>
-    <t>Formal in-person training</t>
-  </si>
-  <si>
-    <t>Observing staff during the Club day using an observational tool such as the YPQA</t>
-  </si>
-  <si>
-    <t>Being observed during the Club day and receiving feedback</t>
+    <t>Detail Report,  Westwood Elementary Boys &amp; Girls Club  2022,  Measure(s): All Categories, All</t>
   </si>
   <si>
     <t>Detail Report,  Spring Branch Elementary Boys &amp; Girls Club  2022,  Measure(s): All Categories, All</t>
@@ -1540,13 +1294,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1569,9 +1329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5237,12 +5000,12 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5256,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F3EBC-0FD0-4A47-B2B0-37531FAD73A7}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -8671,12 +8434,12 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8688,1307 +8451,5479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3252BA-F445-422E-958A-75920365F734}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>2.8</v>
-      </c>
-      <c r="D6">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7">
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E108" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E139" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D146" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E163" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F173" s="2">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3.5</v>
-      </c>
-      <c r="D8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9">
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F209" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D237" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E238" s="2">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>3.2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10">
+      <c r="B243" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F244" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B249" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F249" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G249" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H249" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I249" s="2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F255" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G255" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E256" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F256" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G256" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E257" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F257" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C258" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F258" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G258" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2.4</v>
-      </c>
-      <c r="D10">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2.7</v>
-      </c>
-      <c r="D12">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B265" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B266" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F266" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D272" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D273" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E273" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E277" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E278" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E279" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D280" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E280" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B285" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B286" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D286" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E286" s="2">
+        <v>0</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B291" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C291" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D291" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D292" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B303" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D303" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E303" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B308" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D308" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E308" s="2">
+        <v>0</v>
+      </c>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B309" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D309" s="2">
+        <v>0</v>
+      </c>
+      <c r="E309" s="2">
+        <v>0</v>
+      </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C313" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D313" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E313" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>422</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>424</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>425</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>372</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>427</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" t="s">
-        <v>321</v>
-      </c>
-      <c r="E30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>372</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>437</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>438</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>444</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>446</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>448</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>449</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>450</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>451</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>452</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>453</v>
-      </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>455</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>456</v>
-      </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60" t="s">
-        <v>321</v>
-      </c>
-      <c r="E60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>457</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>458</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>460</v>
-      </c>
-      <c r="C66" t="s">
-        <v>461</v>
-      </c>
-      <c r="D66" t="s">
-        <v>462</v>
-      </c>
-      <c r="E66" t="s">
-        <v>463</v>
-      </c>
-      <c r="F66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>464</v>
-      </c>
-      <c r="B67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>465</v>
-      </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>467</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>469</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>470</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>471</v>
-      </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>472</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
-        <v>460</v>
-      </c>
-      <c r="C79" t="s">
-        <v>461</v>
-      </c>
-      <c r="D79" t="s">
-        <v>462</v>
-      </c>
-      <c r="E79" t="s">
-        <v>463</v>
-      </c>
-      <c r="F79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>474</v>
-      </c>
-      <c r="B80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>475</v>
-      </c>
-      <c r="B81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>476</v>
-      </c>
-      <c r="B82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>477</v>
-      </c>
-      <c r="B83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>478</v>
-      </c>
-      <c r="B84" t="s">
-        <v>321</v>
-      </c>
-      <c r="C84" t="s">
-        <v>321</v>
-      </c>
-      <c r="D84" t="s">
-        <v>321</v>
-      </c>
-      <c r="E84" t="s">
-        <v>321</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>479</v>
-      </c>
-      <c r="B85" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" t="s">
-        <v>321</v>
-      </c>
-      <c r="E85" t="s">
-        <v>321</v>
-      </c>
-      <c r="F85" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>480</v>
-      </c>
-      <c r="B86" t="s">
-        <v>321</v>
-      </c>
-      <c r="C86" t="s">
-        <v>321</v>
-      </c>
-      <c r="D86" t="s">
-        <v>321</v>
-      </c>
-      <c r="E86" t="s">
-        <v>321</v>
-      </c>
-      <c r="F86" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>481</v>
-      </c>
-      <c r="B87" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" t="s">
-        <v>321</v>
-      </c>
-      <c r="D87" t="s">
-        <v>321</v>
-      </c>
-      <c r="E87" t="s">
-        <v>321</v>
-      </c>
-      <c r="F87" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" t="s">
-        <v>483</v>
-      </c>
-      <c r="C91" t="s">
-        <v>484</v>
-      </c>
-      <c r="D91" t="s">
-        <v>485</v>
-      </c>
-      <c r="E91" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" t="s">
-        <v>321</v>
-      </c>
-      <c r="C92" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" t="s">
-        <v>321</v>
-      </c>
-      <c r="E92" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>488</v>
-      </c>
-      <c r="B93" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" t="s">
-        <v>321</v>
-      </c>
-      <c r="D93" t="s">
-        <v>321</v>
-      </c>
-      <c r="E93" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>489</v>
-      </c>
-      <c r="B94" t="s">
-        <v>321</v>
-      </c>
-      <c r="C94" t="s">
-        <v>321</v>
-      </c>
-      <c r="D94" t="s">
-        <v>321</v>
-      </c>
-      <c r="E94" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>490</v>
-      </c>
-      <c r="B95" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95" t="s">
-        <v>321</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
-      </c>
-      <c r="E95" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>491</v>
-      </c>
-      <c r="B96" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" t="s">
-        <v>321</v>
-      </c>
-      <c r="D96" t="s">
-        <v>321</v>
-      </c>
-      <c r="E96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B314" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D314" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E314" s="2">
+        <v>0</v>
+      </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B315" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C315" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D315" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E315" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B316" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D316" s="2">
+        <v>0</v>
+      </c>
+      <c r="E316" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A318:F318"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10006,7 +13941,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10371,7 +14306,7 @@
         <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -10926,7 +14861,7 @@
         <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
         <v>77</v>
@@ -10978,7 +14913,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -11657,7 +15592,7 @@
         <v>105</v>
       </c>
       <c r="C157" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D157" t="s">
         <v>31</v>
@@ -11708,7 +15643,7 @@
         <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D160" t="s">
         <v>50</v>
@@ -11742,7 +15677,7 @@
         <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="D162" t="s">
         <v>77</v>
@@ -11759,7 +15694,7 @@
         <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="D163" t="s">
         <v>91</v>
@@ -11776,7 +15711,7 @@
         <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="D164" t="s">
         <v>105</v>
@@ -11908,7 +15843,7 @@
         <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D176" t="s">
         <v>20</v>
@@ -11969,7 +15904,7 @@
         <v>218</v>
       </c>
       <c r="B183" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s">
         <v>31</v>
@@ -12079,7 +16014,7 @@
         <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="D193" t="s">
         <v>20</v>
@@ -12425,7 +16360,7 @@
         <v>23</v>
       </c>
       <c r="C227" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D227" t="s">
         <v>20</v>
@@ -12442,7 +16377,7 @@
         <v>23</v>
       </c>
       <c r="C228" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D228" t="s">
         <v>20</v>
@@ -13173,7 +17108,7 @@
         <v>362</v>
       </c>
       <c r="B294" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="C294" t="s">
         <v>23</v>
@@ -13327,7 +17262,7 @@
         <v>23</v>
       </c>
       <c r="C311" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D311" t="s">
         <v>20</v>
@@ -13344,7 +17279,7 @@
         <v>23</v>
       </c>
       <c r="C312" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="D312" t="s">
         <v>20</v>
@@ -13354,12 +17289,12 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13381,7 +17316,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16788,12 +20723,12 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16815,6 +20750,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4024CF44A37F04291FF95658E7ECBDA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48157437e3e8b05a4b43e78227dbda30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84e1b615-c911-4e56-969f-e617c0ee68b8" xmlns:ns3="c5f4af1b-4ac5-4e1f-9de7-f6f66fd97f0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bbc3cefdcb64ba40b13a96d645c71cb" ns2:_="" ns3:_="">
     <xsd:import namespace="84e1b615-c911-4e56-969f-e617c0ee68b8"/>
@@ -17051,15 +20995,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81AFCF16-442F-4904-A339-6B2AD270CFD8}">
   <ds:schemaRefs>
@@ -17072,7 +21007,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72EABC-B404-4935-8FFA-510378FE4519}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DDA7501-E4E1-4A87-ADE7-A5C59EDCE424}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46C225C2-D64F-45C2-8BB1-C3D25921B3CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -17088,12 +21031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DDA7501-E4E1-4A87-ADE7-A5C59EDCE424}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>